--- a/artfynd/A 39019-2023.xlsx
+++ b/artfynd/A 39019-2023.xlsx
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626126.9285784755</v>
+        <v>626127</v>
       </c>
       <c r="R2" t="n">
-        <v>6531737.921747742</v>
+        <v>6531738</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>

--- a/artfynd/A 39019-2023.xlsx
+++ b/artfynd/A 39019-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111958693</v>
       </c>
       <c r="B2" t="n">
-        <v>56404</v>
+        <v>56436</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
